--- a/docs/ListofProjects.xlsx
+++ b/docs/ListofProjects.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\course52311\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Student ID</t>
   </si>
@@ -42,12 +37,21 @@
   </si>
   <si>
     <t>Preferred Language</t>
+  </si>
+  <si>
+    <t>נחי אברהם</t>
+  </si>
+  <si>
+    <t>Testing Independence using random projections</t>
+  </si>
+  <si>
+    <t>עברית</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -140,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,26 +356,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,6 +399,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>200328946</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
